--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>43448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43591</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43861</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>44070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>44770</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44876</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44994</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44264</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44701</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43504</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>43563</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43591</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43607</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43616</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43866</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43927</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43998</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>44174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44211</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44225</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44475</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44648</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>44650</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44655</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45068</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>45068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45086</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43336</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43346</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43360</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43362</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43368</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43382</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43389</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43395</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>43409</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>43415</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>43416</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>43417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>43418</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43425</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43426</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43427</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43427</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43431</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43431</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43434</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43437</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43440</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43440</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43441</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43453</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43455</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43455</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43455</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43462</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43462</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43469</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43473</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43474</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43474</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43474</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43480</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43480</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43483</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43488</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43493</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43504</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43504</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43508</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43511</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>43514</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>43514</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43514</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43515</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43515</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43516</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43529</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43536</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43537</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43538</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43538</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43539</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43542</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43542</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43542</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43546</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43550</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43552</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43557</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43557</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43558</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43558</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43558</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43559</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43563</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43564</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43564</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43564</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43570</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43570</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43572</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43572</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43573</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43577</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43579</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43580</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43584</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43587</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43588</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43591</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43591</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43591</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>43599</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>43600</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43601</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43604</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43606</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43606</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43607</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43607</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43608</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43616</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43636</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43639</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>43640</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>43644</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>43648</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>43648</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>43684</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43684</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43696</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43696</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43709</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43710</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43714</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>43714</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>43714</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>43718</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43719</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43721</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>43724</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43747</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43747</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43748</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43749</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43754</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43755</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43756</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43759</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43759</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43759</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43760</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43762</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43767</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43779</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43790</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43793</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>43809</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>43810</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>43812</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43818</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>43818</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>43818</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>43819</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43821</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43826</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>43832</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43832</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43839</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>43846</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>43851</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43866</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43873</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43873</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>43874</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>43877</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43881</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>43889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>43889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43899</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43902</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43905</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43905</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43906</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>43909</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>43909</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>43909</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>43910</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>43910</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>43910</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43914</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43914</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43915</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43916</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43920</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43925</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>43927</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>43928</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>43950</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43962</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>43962</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>43963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>43970</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43978</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>43984</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>43987</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>43991</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>43992</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>43994</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>44004</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44005</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44011</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44012</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44012</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44015</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44021</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44021</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44021</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44047</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44047</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44048</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44048</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44049</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44061</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44062</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44067</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44067</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44067</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44075</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44077</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44078</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44081</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44082</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44082</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44083</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44084</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44084</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44084</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44085</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44090</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44098</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44098</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44102</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44110</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44110</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44113</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44113</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>44130</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>44130</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44131</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44132</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44138</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44146</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>44151</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>44153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44158</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44158</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>44159</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44165</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44175</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44180</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44182</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44187</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44188</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44203</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44208</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44214</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44218</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44225</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44225</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44228</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44230</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44238</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44243</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44243</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44245</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>44252</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44256</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44258</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44264</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44279</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>44284</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44292</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44298</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23571,7 +23571,7 @@
         <v>44322</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23628,7 +23628,7 @@
         <v>44322</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>44324</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>44327</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44327</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44333</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44354</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44356</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>44358</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>44363</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44370</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44376</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44378</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44379</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44379</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>44385</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44396</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44399</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>44403</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>44403</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44404</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44405</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44413</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44425</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44426</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44426</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44426</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44427</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44431</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44433</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44446</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44446</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44446</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44452</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44452</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44452</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>44459</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44459</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44467</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44468</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44474</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44474</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44475</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44475</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44482</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44482</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44483</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44483</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44483</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>44484</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44488</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44488</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44491</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44491</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44493</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44493</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44495</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44495</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44516</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>44518</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>44518</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>44519</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44519</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>44529</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>44530</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>44530</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44531</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>44531</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
         <v>44533</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>44533</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44533</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44536</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>44537</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>44544</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>44544</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44544</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44547</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44550</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44550</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44552</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44561</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44566</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44566</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44571</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44581</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44585</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44588</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44589</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>44593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44594</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44594</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44594</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44595</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44599</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44600</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>44613</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29884,7 +29884,7 @@
         <v>44623</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44627</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>44627</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44634</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44649</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44649</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44649</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44650</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44650</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44652</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44656</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44662</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44664</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30650,7 +30650,7 @@
         <v>44664</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>44666</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>44669</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         <v>44671</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
         <v>44678</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44679</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44683</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44687</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44698</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44698</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44708</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44708</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44711</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44712</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44715</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44735</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44738</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44746</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44749</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>44754</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>44754</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31882,7 +31882,7 @@
         <v>44763</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         <v>44788</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44804</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>44805</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>44806</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44812</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44825</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44855</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44858</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>44861</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44867</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>44872</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>44872</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44873</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44876</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44876</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44882</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32933,7 +32933,7 @@
         <v>44887</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>44888</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44888</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33129,7 +33129,7 @@
         <v>44888</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         <v>44894</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33243,7 +33243,7 @@
         <v>44895</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33300,7 +33300,7 @@
         <v>44896</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33357,7 +33357,7 @@
         <v>44896</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33414,7 +33414,7 @@
         <v>44896</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33471,7 +33471,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>44902</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>44904</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>44904</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44908</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>44913</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>44923</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>44949</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33989,7 +33989,7 @@
         <v>44959</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34046,7 +34046,7 @@
         <v>44959</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34103,7 +34103,7 @@
         <v>44970</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44973</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44973</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44973</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44974</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44979</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44981</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44982</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44985</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44985</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44985</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44986</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44994</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44994</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44998</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44998</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44999</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45005</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45007</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45015</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>45019</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>45020</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45020</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>45028</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>45034</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>45035</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45035</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>45035</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35744,7 +35744,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35806,7 +35806,7 @@
         <v>45036</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>45037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>45040</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>45041</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>45041</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45041</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>45044</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>45048</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36267,7 +36267,7 @@
         <v>45048</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36324,7 +36324,7 @@
         <v>45049</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45051</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45061</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45062</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45063</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>45068</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>45070</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>45071</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>45071</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         <v>45071</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36894,7 +36894,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36951,7 +36951,7 @@
         <v>45077</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>45079</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37065,7 +37065,7 @@
         <v>45086</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37122,7 +37122,7 @@
         <v>45091</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37179,7 +37179,7 @@
         <v>45093</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37236,7 +37236,7 @@
         <v>45093</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>45095</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>45095</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45096</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>45096</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45097</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>45098</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45098</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>45099</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>45103</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>45106</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>45107</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>45110</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>45112</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>45112</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>45112</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>45118</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>45118</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>45118</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>45120</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>45120</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>45120</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45125</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>45141</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38661,7 +38661,7 @@
         <v>45145</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38718,7 +38718,7 @@
         <v>45149</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38775,7 +38775,7 @@
         <v>45154</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45160</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45160</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45161</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45161</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45166</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45167</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45168</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45168</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45168</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>43448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>43591</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>43861</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>44070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>44770</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44876</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44994</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44264</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44378</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44701</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>45174</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>43504</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43563</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43591</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21136,7 +21136,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27878,7 +27878,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28049,7 +28049,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29613,7 +29613,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30369,7 +30369,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30674,7 +30674,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31197,7 +31197,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31254,7 +31254,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32258,7 +32258,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33247,7 +33247,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35763,7 +35763,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35939,7 +35939,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38462,7 +38462,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38519,7 +38519,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38576,7 +38576,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38633,7 +38633,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38690,7 +38690,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38975,7 +38975,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,1278 +1045,1280 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A 41227-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp
+Motaggsvamp
+Flagellkvastmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41227-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41227-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41227-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41227-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41227-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41227-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>A 70664-2018</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43448</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>3.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 70664-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 70664-2018.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 70664-2018.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 70664-2018.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 70664-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 70664-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 22865-2019</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43591</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Trådticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 22865-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 22865-2019.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 22865-2019.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 22865-2019.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 22865-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 22865-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 5520-2020</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43861</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Svedjenäva
 Skogsknipprot
 Springkorn</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 5520-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 5520-2020.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 5520-2020.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 5520-2020.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 5520-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 5520-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 40945-2020</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44070</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>5.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Bronshjon</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 40945-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 40945-2020.png")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 40945-2020.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 40945-2020.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 40945-2020.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 40945-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 40945-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 11927-2022</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44635</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>12</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Barkticka
 Kornig nållav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11927-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11927-2022.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11927-2022.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11927-2022.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11927-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11927-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 31151-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44770</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>7.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 31151-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 31151-2022.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 31151-2022.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 31151-2022.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 31151-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 31151-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 53051-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44876</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>1.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Storgröe
 Strutbräken
 Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 53051-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 53051-2022.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 53051-2022.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 53051-2022.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 53051-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 53051-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 11615-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44994</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>0.8</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Svedjenäva
 Skogsknipprot
 Springkorn</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11615-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11615-2023.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11615-2023.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11615-2023.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11615-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11615-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 14815-2023</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45014</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>5.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Vaddporing
 Rödgul trumpetsvamp
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14815-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14815-2023.png")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 14815-2023.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14815-2023.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14815-2023.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14815-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14815-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 18231-2020</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>43928</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>0.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Mattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18231-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18231-2020.png")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 18231-2020.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18231-2020.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18231-2020.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18231-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18231-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 11581-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44264</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>2.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11581-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11581-2021.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11581-2021.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11581-2021.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11581-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11581-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 33866-2021</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44378</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>5.8</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Mattlummer</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 33866-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 33866-2021.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 33866-2021.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 33866-2021.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 33866-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 33866-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 20765-2022</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44701</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.4</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar
 Mattlummer</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 20765-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 20765-2022.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 20765-2022.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 20765-2022.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 20765-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 20765-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 41227-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45174</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41227-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41227-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41227-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41227-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41227-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41227-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
@@ -2327,7 +2329,7 @@
         <v>45175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2413,7 +2415,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2505,7 @@
         <v>43504</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2595,7 @@
         <v>43563</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2680,7 @@
         <v>43591</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2768,7 +2770,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2855,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2945,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3033,7 +3035,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3120,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3203,7 +3205,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3295,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3378,7 +3380,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3467,7 +3469,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3552,7 +3554,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3637,7 +3639,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3727,7 +3729,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3819,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3902,7 +3904,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3992,7 +3994,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4082,7 +4084,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4172,7 +4174,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4261,7 +4263,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4353,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4436,7 +4438,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4521,7 +4523,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4611,7 +4613,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4696,7 +4698,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4753,7 +4755,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4810,7 +4812,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4867,7 +4869,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4924,7 +4926,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4981,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5038,7 +5040,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5095,7 +5097,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5152,7 +5154,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5209,7 +5211,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5266,7 +5268,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5323,7 +5325,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5380,7 +5382,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5437,7 +5439,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5494,7 +5496,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5551,7 +5553,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5608,7 +5610,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5665,7 +5667,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5722,7 +5724,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5784,7 +5786,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5841,7 +5843,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5898,7 +5900,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5955,7 +5957,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6017,7 +6019,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6079,7 +6081,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6136,7 +6138,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6193,7 +6195,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6250,7 +6252,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6307,7 +6309,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6364,7 +6366,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6421,7 +6423,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6478,7 +6480,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6535,7 +6537,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6592,7 +6594,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6649,7 +6651,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6706,7 +6708,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6768,7 +6770,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6825,7 +6827,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6882,7 +6884,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6939,7 +6941,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6996,7 +6998,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7053,7 +7055,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7110,7 +7112,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7167,7 +7169,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7229,7 +7231,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7286,7 +7288,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7343,7 +7345,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7400,7 +7402,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7457,7 +7459,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7514,7 +7516,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7571,7 +7573,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7628,7 +7630,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7685,7 +7687,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7742,7 +7744,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7799,7 +7801,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7856,7 +7858,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7913,7 +7915,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7970,7 +7972,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8032,7 +8034,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8089,7 +8091,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8151,7 +8153,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8208,7 +8210,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8265,7 +8267,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8327,7 +8329,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8389,7 +8391,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8451,7 +8453,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8508,7 +8510,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8565,7 +8567,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8622,7 +8624,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8679,7 +8681,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8736,7 +8738,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8793,7 +8795,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8850,7 +8852,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8907,7 +8909,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8969,7 +8971,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9026,7 +9028,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9083,7 +9085,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9140,7 +9142,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9197,7 +9199,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9254,7 +9256,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9311,7 +9313,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9368,7 +9370,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9425,7 +9427,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9482,7 +9484,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9539,7 +9541,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9601,7 +9603,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9663,7 +9665,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9720,7 +9722,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9777,7 +9779,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9834,7 +9836,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9891,7 +9893,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9948,7 +9950,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10005,7 +10007,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10062,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10119,7 +10121,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10181,7 +10183,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10238,7 +10240,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10295,7 +10297,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10352,7 +10354,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10409,7 +10411,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10466,7 +10468,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10523,7 +10525,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10580,7 +10582,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10637,7 +10639,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10694,7 +10696,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10751,7 +10753,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10808,7 +10810,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10865,7 +10867,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10922,7 +10924,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10979,7 +10981,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11036,7 +11038,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11098,7 +11100,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11155,7 +11157,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11237,7 +11239,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11299,7 +11301,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11361,7 +11363,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11423,7 +11425,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11480,7 +11482,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11537,7 +11539,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11594,7 +11596,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11651,7 +11653,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11708,7 +11710,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11765,7 +11767,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11827,7 +11829,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11884,7 +11886,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11941,7 +11943,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11998,7 +12000,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12055,7 +12057,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12112,7 +12114,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12174,7 +12176,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12231,7 +12233,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12288,7 +12290,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12350,7 +12352,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12412,7 +12414,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12469,7 +12471,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12531,7 +12533,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12588,7 +12590,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12645,7 +12647,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12702,7 +12704,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12759,7 +12761,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12816,7 +12818,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12873,7 +12875,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12930,7 +12932,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12987,7 +12989,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13044,7 +13046,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13106,7 +13108,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13163,7 +13165,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13225,7 +13227,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13287,7 +13289,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13349,7 +13351,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13411,7 +13413,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13468,7 +13470,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13530,7 +13532,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13592,7 +13594,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13649,7 +13651,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13706,7 +13708,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13763,7 +13765,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13820,7 +13822,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13877,7 +13879,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13934,7 +13936,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13991,7 +13993,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14048,7 +14050,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14105,7 +14107,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14167,7 +14169,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14224,7 +14226,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14281,7 +14283,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14338,7 +14340,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14395,7 +14397,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14452,7 +14454,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14509,7 +14511,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14566,7 +14568,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14623,7 +14625,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14680,7 +14682,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14737,7 +14739,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14794,7 +14796,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14851,7 +14853,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14908,7 +14910,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14965,7 +14967,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15022,7 +15024,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15079,7 +15081,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15136,7 +15138,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15193,7 +15195,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15250,7 +15252,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15307,7 +15309,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15364,7 +15366,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15421,7 +15423,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15478,7 +15480,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15535,7 +15537,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15597,7 +15599,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15659,7 +15661,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15716,7 +15718,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15773,7 +15775,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15830,7 +15832,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15887,7 +15889,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15944,7 +15946,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16001,7 +16003,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16058,7 +16060,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16115,7 +16117,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16172,7 +16174,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16229,7 +16231,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16291,7 +16293,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16348,7 +16350,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16405,7 +16407,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16462,7 +16464,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16519,7 +16521,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16576,7 +16578,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16633,7 +16635,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16690,7 +16692,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16747,7 +16749,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16804,7 +16806,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16861,7 +16863,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16918,7 +16920,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16975,7 +16977,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17032,7 +17034,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17089,7 +17091,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17146,7 +17148,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17203,7 +17205,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17260,7 +17262,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17317,7 +17319,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17374,7 +17376,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17431,7 +17433,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17488,7 +17490,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17545,7 +17547,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17602,7 +17604,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17659,7 +17661,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17716,7 +17718,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17773,7 +17775,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17830,7 +17832,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17887,7 +17889,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17944,7 +17946,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18001,7 +18003,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18058,7 +18060,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18115,7 +18117,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18172,7 +18174,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18229,7 +18231,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18286,7 +18288,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18343,7 +18345,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18400,7 +18402,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18457,7 +18459,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18514,7 +18516,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18571,7 +18573,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18628,7 +18630,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18685,7 +18687,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18742,7 +18744,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18799,7 +18801,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18856,7 +18858,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18913,7 +18915,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18970,7 +18972,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19027,7 +19029,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19084,7 +19086,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19141,7 +19143,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19198,7 +19200,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19255,7 +19257,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19312,7 +19314,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19369,7 +19371,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19426,7 +19428,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19483,7 +19485,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19540,7 +19542,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19597,7 +19599,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19654,7 +19656,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19711,7 +19713,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19768,7 +19770,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19825,7 +19827,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19882,7 +19884,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19939,7 +19941,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19996,7 +19998,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20053,7 +20055,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20110,7 +20112,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20167,7 +20169,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20224,7 +20226,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20281,7 +20283,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20338,7 +20340,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20395,7 +20397,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20452,7 +20454,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20509,7 +20511,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20566,7 +20568,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20623,7 +20625,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20680,7 +20682,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20737,7 +20739,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20794,7 +20796,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20851,7 +20853,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20908,7 +20910,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20965,7 +20967,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21022,7 +21024,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21079,7 +21081,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21136,7 +21138,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21193,7 +21195,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21255,7 +21257,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21319,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21379,7 +21381,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21436,7 +21438,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21493,7 +21495,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21550,7 +21552,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21609,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21664,7 +21666,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21728,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21788,7 +21790,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21847,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21904,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21961,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22016,7 +22018,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22073,7 +22075,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22130,7 +22132,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22187,7 +22189,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22251,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22311,7 +22313,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22368,7 +22370,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22430,7 +22432,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22492,7 +22494,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22554,7 +22556,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22611,7 +22613,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22668,7 +22670,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22725,7 +22727,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22787,7 +22789,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22844,7 +22846,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22901,7 +22903,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22958,7 +22960,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23015,7 +23017,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23072,7 +23074,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23129,7 +23131,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23186,7 +23188,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23243,7 +23245,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23300,7 +23302,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23357,7 +23359,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23414,7 +23416,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23471,7 +23473,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23528,7 +23530,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23590,7 +23592,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23652,7 +23654,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23714,7 +23716,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23771,7 +23773,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23828,7 +23830,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23885,7 +23887,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23942,7 +23944,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +24001,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24056,7 +24058,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24113,7 +24115,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24170,7 +24172,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24227,7 +24229,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24284,7 +24286,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24341,7 +24343,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24403,7 +24405,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24460,7 +24462,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24517,7 +24519,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24579,7 +24581,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24636,7 +24638,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24693,7 +24695,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24750,7 +24752,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24807,7 +24809,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24869,7 +24871,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24926,7 +24928,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24983,7 +24985,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25045,7 +25047,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25102,7 +25104,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25159,7 +25161,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25216,7 +25218,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25278,7 +25280,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25335,7 +25337,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25392,7 +25394,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25449,7 +25451,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25506,7 +25508,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25563,7 +25565,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25620,7 +25622,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25677,7 +25679,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25734,7 +25736,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25791,7 +25793,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25848,7 +25850,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25905,7 +25907,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25962,7 +25964,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26019,7 +26021,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26076,7 +26078,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26133,7 +26135,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26190,7 +26192,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26247,7 +26249,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26304,7 +26306,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26366,7 +26368,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26425,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26482,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26537,7 +26539,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26599,7 +26601,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26663,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26720,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26777,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26834,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26894,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26956,7 +26958,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27018,7 +27020,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27080,7 +27082,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27137,7 +27139,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27194,7 +27196,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27251,7 +27253,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27308,7 +27310,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27365,7 +27367,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27422,7 +27424,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27479,7 +27481,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27536,7 +27538,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27593,7 +27595,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27650,7 +27652,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27707,7 +27709,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27764,7 +27766,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27821,7 +27823,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27878,7 +27880,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27935,7 +27937,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27992,7 +27994,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28049,7 +28051,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28108,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28165,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28222,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28279,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28336,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28393,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28450,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28507,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28562,7 +28564,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28619,7 +28621,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28676,7 +28678,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28733,7 +28735,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28790,7 +28792,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28852,7 +28854,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28909,7 +28911,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28966,7 +28968,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29023,7 +29025,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29085,7 +29087,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29142,7 +29144,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29199,7 +29201,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29256,7 +29258,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29313,7 +29315,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29370,7 +29372,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29427,7 +29429,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29491,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29551,7 +29553,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29613,7 +29615,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29675,7 +29677,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29737,7 +29739,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29794,7 +29796,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29851,7 +29853,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29908,7 +29910,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29965,7 +29967,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30022,7 +30024,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30079,7 +30081,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30141,7 +30143,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30198,7 +30200,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30255,7 +30257,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30312,7 +30314,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30369,7 +30371,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30431,7 +30433,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30493,7 +30495,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30555,7 +30557,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30612,7 +30614,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30674,7 +30676,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30736,7 +30738,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30793,7 +30795,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30850,7 +30852,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30907,7 +30909,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30964,7 +30966,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31021,7 +31023,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31078,7 +31080,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31135,7 +31137,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31197,7 +31199,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31254,7 +31256,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31316,7 +31318,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31378,7 +31380,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31435,7 +31437,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31492,7 +31494,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31549,7 +31551,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31606,7 +31608,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31663,7 +31665,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31720,7 +31722,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31777,7 +31779,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31834,7 +31836,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31891,7 +31893,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31953,7 +31955,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32015,7 +32017,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32077,7 +32079,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32139,7 +32141,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32201,7 +32203,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32258,7 +32260,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32315,7 +32317,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32372,7 +32374,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32429,7 +32431,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32491,7 +32493,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32548,7 +32550,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32605,7 +32607,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32662,7 +32664,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32719,7 +32721,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32776,7 +32778,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32833,7 +32835,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32895,7 +32897,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32957,7 +32959,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33014,7 +33016,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33071,7 +33073,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33128,7 +33130,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33190,7 +33192,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33247,7 +33249,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33309,7 +33311,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33386,7 +33388,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33443,7 +33445,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33500,7 +33502,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33557,7 +33559,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33614,7 +33616,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33671,7 +33673,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33728,7 +33730,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33790,7 +33792,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33847,7 +33849,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33904,7 +33906,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33961,7 +33963,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34018,7 +34020,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34075,7 +34077,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34132,7 +34134,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34189,7 +34191,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34246,7 +34248,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34303,7 +34305,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34360,7 +34362,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34422,7 +34424,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34479,7 +34481,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34536,7 +34538,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34593,7 +34595,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34650,7 +34652,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34712,7 +34714,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34774,7 +34776,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34831,7 +34833,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34888,7 +34890,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34945,7 +34947,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35002,7 +35004,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35064,7 +35066,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35126,7 +35128,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35188,7 +35190,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35245,7 +35247,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35302,7 +35304,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35359,7 +35361,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35416,7 +35418,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35473,7 +35475,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35535,7 +35537,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35592,7 +35594,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35649,7 +35651,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35706,7 +35708,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35763,7 +35765,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35820,7 +35822,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35877,7 +35879,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35939,7 +35941,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36001,7 +36003,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36063,7 +36065,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36120,7 +36122,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36177,7 +36179,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36234,7 +36236,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36291,7 +36293,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36348,7 +36350,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36405,7 +36407,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36467,7 +36469,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36524,7 +36526,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36581,7 +36583,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36638,7 +36640,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36695,7 +36697,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36752,7 +36754,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36809,7 +36811,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36866,7 +36868,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36923,7 +36925,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36980,7 +36982,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37037,7 +37039,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37094,7 +37096,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37151,7 +37153,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37208,7 +37210,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37265,7 +37267,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37322,7 +37324,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37379,7 +37381,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37436,7 +37438,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37493,7 +37495,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37550,7 +37552,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37607,7 +37609,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37664,7 +37666,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37721,7 +37723,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37778,7 +37780,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37835,7 +37837,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37892,7 +37894,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37949,7 +37951,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38006,7 +38008,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38063,7 +38065,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38120,7 +38122,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38177,7 +38179,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38234,7 +38236,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38291,7 +38293,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38348,7 +38350,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38405,7 +38407,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38462,7 +38464,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38519,7 +38521,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38576,7 +38578,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38633,7 +38635,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38690,7 +38692,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38747,7 +38749,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38804,7 +38806,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38861,7 +38863,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38918,7 +38920,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38975,7 +38977,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39032,7 +39034,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39094,7 +39096,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39151,7 +39153,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39208,7 +39210,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39265,7 +39267,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39322,7 +39324,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39379,7 +39381,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39436,7 +39438,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39493,7 +39495,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39550,7 +39552,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39607,7 +39609,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39664,7 +39666,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39721,7 +39723,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43928</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44264</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44701</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43504</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43563</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43591</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25451,7 +25451,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38977,7 +38977,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39034,7 +39034,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39096,7 +39096,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39153,7 +39153,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39210,7 +39210,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39324,7 +39324,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43928</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44264</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44701</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43504</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43563</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43591</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25451,7 +25451,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38977,7 +38977,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39034,7 +39034,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39096,7 +39096,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39153,7 +39153,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39210,7 +39210,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39324,7 +39324,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43928</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44264</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44701</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43504</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43563</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43591</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25451,7 +25451,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38977,7 +38977,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39034,7 +39034,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39096,7 +39096,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39153,7 +39153,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39210,7 +39210,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39324,7 +39324,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43928</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44264</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44701</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45175</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>43504</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43563</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>43591</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25451,7 +25451,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33016,7 +33016,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33130,7 +33130,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35066,7 +35066,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36925,7 +36925,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38863,7 +38863,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38920,7 +38920,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38977,7 +38977,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39034,7 +39034,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39096,7 +39096,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39153,7 +39153,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39210,7 +39210,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39324,7 +39324,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -642,31 +642,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 40934-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 40934-2020.xlsx", "A 40934-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 40934-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 40934-2020.png", "A 40934-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 40934-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 40934-2020.png", "A 40934-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 40934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 40934-2020.docx", "A 40934-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 40934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 40934-2020.docx", "A 40934-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 40934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 40934-2020.docx", "A 40934-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 40934-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 40934-2020.docx", "A 40934-2020")</f>
         <v/>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -737,27 +737,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 44469-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 44469-2022.xlsx", "A 44469-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 44469-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 44469-2022.png", "A 44469-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 44469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 44469-2022.docx", "A 44469-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 44469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 44469-2022.docx", "A 44469-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 44469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 44469-2022.docx", "A 44469-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 44469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 44469-2022.docx", "A 44469-2022")</f>
         <v/>
       </c>
     </row>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,27 +827,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 43773-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 43773-2020.xlsx", "A 43773-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 43773-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 43773-2020.png", "A 43773-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 43773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 43773-2020.docx", "A 43773-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 43773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 43773-2020.docx", "A 43773-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 43773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 43773-2020.docx", "A 43773-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 43773-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 43773-2020.docx", "A 43773-2020")</f>
         <v/>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,31 +921,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 17497-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 17497-2019.xlsx", "A 17497-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 17497-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 17497-2019.png", "A 17497-2019")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 17497-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 17497-2019.png", "A 17497-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 17497-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 17497-2019.docx", "A 17497-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 17497-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 17497-2019.docx", "A 17497-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 17497-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 17497-2019.docx", "A 17497-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 17497-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 17497-2019.docx", "A 17497-2019")</f>
         <v/>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,27 +1018,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 7484-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 7484-2023.xlsx", "A 7484-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 7484-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 7484-2023.png", "A 7484-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 7484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 7484-2023.docx", "A 7484-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 7484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 7484-2023.docx", "A 7484-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 7484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 7484-2023.docx", "A 7484-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 7484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 7484-2023.docx", "A 7484-2023")</f>
         <v/>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,27 +1106,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41227-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41227-2023.xlsx", "A 41227-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41227-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41227-2023.png", "A 41227-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41227-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41227-2023.docx", "A 41227-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41227-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41227-2023.docx", "A 41227-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41227-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41227-2023.docx", "A 41227-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41227-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41227-2023.docx", "A 41227-2023")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,27 +1193,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 70664-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 70664-2018.xlsx", "A 70664-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 70664-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 70664-2018.png", "A 70664-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 70664-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 70664-2018.docx", "A 70664-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 70664-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 70664-2018.docx", "A 70664-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 70664-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 70664-2018.docx", "A 70664-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 70664-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 70664-2018.docx", "A 70664-2018")</f>
         <v/>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,27 +1285,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 22865-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 22865-2019.xlsx", "A 22865-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 22865-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 22865-2019.png", "A 22865-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 22865-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 22865-2019.docx", "A 22865-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 22865-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 22865-2019.docx", "A 22865-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 22865-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 22865-2019.docx", "A 22865-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 22865-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 22865-2019.docx", "A 22865-2019")</f>
         <v/>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,27 +1377,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 5520-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 5520-2020.xlsx", "A 5520-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 5520-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 5520-2020.png", "A 5520-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 5520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 5520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 5520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 5520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 40945-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 40945-2020.xlsx", "A 40945-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 40945-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 40945-2020.png", "A 40945-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 40945-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 40945-2020.png", "A 40945-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 40945-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 40945-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 40945-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 40945-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1565,27 +1565,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11927-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11927-2022.xlsx", "A 11927-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11927-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11927-2022.png", "A 11927-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,27 +1657,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 31151-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 31151-2022.xlsx", "A 31151-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 31151-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 31151-2022.png", "A 31151-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 31151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 31151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 31151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 31151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,27 +1744,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 53051-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 53051-2022.xlsx", "A 53051-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 53051-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 53051-2022.png", "A 53051-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 53051-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 53051-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 53051-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 53051-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,27 +1836,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11615-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11615-2023.xlsx", "A 11615-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11615-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11615-2023.png", "A 11615-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11615-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,45 +1928,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14815-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14815-2023.xlsx", "A 14815-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14815-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14815-2023.png", "A 14815-2023")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 14815-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 14815-2023.png", "A 14815-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 18231-2020</t>
+          <t>A 23049-2019</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43928</v>
+        <v>43591</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1978,20 +1978,25 @@
           <t>KARLSTAD</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2006,506 +2011,502 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
+          <t>Talltita
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 23049-2019.xlsx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 23049-2019.png", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 18231-2020</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>43928</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Mattlummer</t>
         </is>
       </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18231-2020.xlsx")</f>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18231-2020.xlsx", "A 18231-2020")</f>
         <v/>
       </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18231-2020.png")</f>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18231-2020.png", "A 18231-2020")</f>
         <v/>
       </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 18231-2020.png")</f>
+      <c r="U18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 18231-2020.png", "A 18231-2020")</f>
         <v/>
       </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18231-2020.docx")</f>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18231-2020.docx", "A 18231-2020")</f>
         <v/>
       </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18231-2020.docx")</f>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18231-2020.docx", "A 18231-2020")</f>
         <v/>
       </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18231-2020.docx")</f>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18231-2020.docx", "A 18231-2020")</f>
         <v/>
       </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18231-2020.docx")</f>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18231-2020.docx", "A 18231-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 11581-2021</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44264</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>2.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11581-2021.xlsx")</f>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11581-2021.xlsx", "A 11581-2021")</f>
         <v/>
       </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11581-2021.png")</f>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11581-2021.png", "A 11581-2021")</f>
         <v/>
       </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11581-2021.docx")</f>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11581-2021.docx", "A 11581-2021")</f>
         <v/>
       </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11581-2021.docx")</f>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11581-2021.docx", "A 11581-2021")</f>
         <v/>
       </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11581-2021.docx")</f>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11581-2021.docx", "A 11581-2021")</f>
         <v/>
       </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11581-2021.docx")</f>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11581-2021.docx", "A 11581-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 33866-2021</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44378</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>5.8</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Mattlummer</t>
         </is>
       </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 33866-2021.xlsx")</f>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 33866-2021.xlsx", "A 33866-2021")</f>
         <v/>
       </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 33866-2021.png")</f>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 33866-2021.png", "A 33866-2021")</f>
         <v/>
       </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 33866-2021.docx")</f>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 33866-2021.docx", "A 33866-2021")</f>
         <v/>
       </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 33866-2021.docx")</f>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 33866-2021.docx", "A 33866-2021")</f>
         <v/>
       </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 33866-2021.docx")</f>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 33866-2021.docx", "A 33866-2021")</f>
         <v/>
       </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 33866-2021.docx")</f>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 33866-2021.docx", "A 33866-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 20765-2022</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44701</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>3.4</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar
 Mattlummer</t>
         </is>
       </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 20765-2022.xlsx")</f>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 20765-2022.xlsx", "A 20765-2022")</f>
         <v/>
       </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 20765-2022.png")</f>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 20765-2022.png", "A 20765-2022")</f>
         <v/>
       </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 20765-2022.docx")</f>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 20765-2022.docx", "A 20765-2022")</f>
         <v/>
       </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 20765-2022.docx")</f>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 20765-2022.docx", "A 20765-2022")</f>
         <v/>
       </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 20765-2022.docx")</f>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 20765-2022.docx", "A 20765-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 20765-2022.docx")</f>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 20765-2022.docx", "A 20765-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 41507-2023</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45175</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>11.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41507-2023.xlsx")</f>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41507-2023.xlsx", "A 41507-2023")</f>
         <v/>
       </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41507-2023.png")</f>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41507-2023.png", "A 41507-2023")</f>
         <v/>
       </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41507-2023.docx")</f>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41507-2023.docx", "A 41507-2023")</f>
         <v/>
       </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41507-2023.docx")</f>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41507-2023.docx", "A 41507-2023")</f>
         <v/>
       </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41507-2023.docx")</f>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41507-2023.docx", "A 41507-2023")</f>
         <v/>
       </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41507-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 59564-2018</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>43419</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 59564-2018.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 59564-2018.png")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 59564-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 59564-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 59564-2018.docx")</f>
-        <v/>
-      </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 59564-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41507-2023.docx", "A 41507-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9067-2019</t>
+          <t>A 59564-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43504</v>
+        <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2524,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2532,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2547,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2557,45 +2558,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 9067-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 59564-2018.xlsx", "A 59564-2018")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 9067-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 59564-2018.png", "A 59564-2018")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 9067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 59564-2018.docx", "A 59564-2018")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 9067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 59564-2018.docx", "A 59564-2018")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 9067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 59564-2018.docx", "A 59564-2018")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 9067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 59564-2018.docx", "A 59564-2018")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 18838-2019</t>
+          <t>A 9067-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43563</v>
+        <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2607,8 +2608,13 @@
           <t>KARLSTAD</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2617,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2632,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2642,45 +2648,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18838-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 9067-2019.xlsx", "A 9067-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18838-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 9067-2019.png", "A 9067-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18838-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 9067-2019.docx", "A 9067-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18838-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 9067-2019.docx", "A 9067-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18838-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 9067-2019.docx", "A 9067-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18838-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 9067-2019.docx", "A 9067-2019")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 23049-2019</t>
+          <t>A 18838-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43591</v>
+        <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2692,19 +2698,14 @@
           <t>KARLSTAD</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2732,31 +2733,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 23049-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18838-2019.xlsx", "A 18838-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 23049-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18838-2019.png", "A 18838-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 23049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18838-2019.docx", "A 18838-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 23049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18838-2019.docx", "A 18838-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 23049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18838-2019.docx", "A 18838-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 23049-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18838-2019.docx", "A 18838-2019")</f>
         <v/>
       </c>
     </row>
@@ -2770,7 +2771,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,27 +2822,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 25652-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 25652-2019.xlsx", "A 25652-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 25652-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 25652-2019.png", "A 25652-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 25652-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 25652-2019.docx", "A 25652-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 25652-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 25652-2019.docx", "A 25652-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 25652-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 25652-2019.docx", "A 25652-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 25652-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 25652-2019.docx", "A 25652-2019")</f>
         <v/>
       </c>
     </row>
@@ -2855,7 +2856,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,27 +2912,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 27311-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 27311-2019.xlsx", "A 27311-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 27311-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 27311-2019.png", "A 27311-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 27311-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 27311-2019.docx", "A 27311-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 27311-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 27311-2019.docx", "A 27311-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 27311-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 27311-2019.docx", "A 27311-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 27311-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 27311-2019.docx", "A 27311-2019")</f>
         <v/>
       </c>
     </row>
@@ -2945,7 +2946,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,27 +3002,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 6299-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 6299-2020.xlsx", "A 6299-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 6299-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 6299-2020.png", "A 6299-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 6299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 6299-2020.docx", "A 6299-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 6299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 6299-2020.docx", "A 6299-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 6299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 6299-2020.docx", "A 6299-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 6299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 6299-2020.docx", "A 6299-2020")</f>
         <v/>
       </c>
     </row>
@@ -3035,7 +3036,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,27 +3087,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18075-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 18075-2020.xlsx", "A 18075-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18075-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 18075-2020.png", "A 18075-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 18075-2020.docx", "A 18075-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 18075-2020.docx", "A 18075-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 18075-2020.docx", "A 18075-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 18075-2020.docx", "A 18075-2020")</f>
         <v/>
       </c>
     </row>
@@ -3120,7 +3121,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,27 +3172,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 28368-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 28368-2020.xlsx", "A 28368-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 28368-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 28368-2020.png", "A 28368-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 28368-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 28368-2020.docx", "A 28368-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 28368-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 28368-2020.docx", "A 28368-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 28368-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 28368-2020.docx", "A 28368-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 28368-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 28368-2020.docx", "A 28368-2020")</f>
         <v/>
       </c>
     </row>
@@ -3205,7 +3206,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3261,27 +3262,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 65851-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 65851-2020.xlsx", "A 65851-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 65851-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 65851-2020.png", "A 65851-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 65851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 65851-2020.docx", "A 65851-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 65851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 65851-2020.docx", "A 65851-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 65851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 65851-2020.docx", "A 65851-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 65851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 65851-2020.docx", "A 65851-2020")</f>
         <v/>
       </c>
     </row>
@@ -3295,7 +3296,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,27 +3347,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 67928-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 67928-2020.xlsx", "A 67928-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 67928-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 67928-2020.png", "A 67928-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 67928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 67928-2020.docx", "A 67928-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 67928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 67928-2020.docx", "A 67928-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 67928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 67928-2020.docx", "A 67928-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 67928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 67928-2020.docx", "A 67928-2020")</f>
         <v/>
       </c>
     </row>
@@ -3380,7 +3381,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3431,31 +3432,31 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 2194-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 2194-2021.xlsx", "A 2194-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 2194-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 2194-2021.png", "A 2194-2021")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 2194-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 2194-2021.png", "A 2194-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 2194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 2194-2021.docx", "A 2194-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 2194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 2194-2021.docx", "A 2194-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 2194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 2194-2021.docx", "A 2194-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 2194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 2194-2021.docx", "A 2194-2021")</f>
         <v/>
       </c>
     </row>
@@ -3469,7 +3470,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,27 +3521,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 4799-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 4799-2021.xlsx", "A 4799-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 4799-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 4799-2021.png", "A 4799-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 4799-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 4799-2021.docx", "A 4799-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 4799-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 4799-2021.docx", "A 4799-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 4799-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 4799-2021.docx", "A 4799-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 4799-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 4799-2021.docx", "A 4799-2021")</f>
         <v/>
       </c>
     </row>
@@ -3554,7 +3555,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,27 +3606,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 47134-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 47134-2021.xlsx", "A 47134-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 47134-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 47134-2021.png", "A 47134-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 47134-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 47134-2021.docx", "A 47134-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 47134-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 47134-2021.docx", "A 47134-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 47134-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 47134-2021.docx", "A 47134-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 47134-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 47134-2021.docx", "A 47134-2021")</f>
         <v/>
       </c>
     </row>
@@ -3639,7 +3640,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,27 +3696,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 55264-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 55264-2021.xlsx", "A 55264-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 55264-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 55264-2021.png", "A 55264-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 55264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 55264-2021.docx", "A 55264-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 55264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 55264-2021.docx", "A 55264-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 55264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 55264-2021.docx", "A 55264-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 55264-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 55264-2021.docx", "A 55264-2021")</f>
         <v/>
       </c>
     </row>
@@ -3729,7 +3730,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,27 +3786,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 55210-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 55210-2021.xlsx", "A 55210-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 55210-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 55210-2021.png", "A 55210-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 55210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 55210-2021.docx", "A 55210-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 55210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 55210-2021.docx", "A 55210-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 55210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 55210-2021.docx", "A 55210-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 55210-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 55210-2021.docx", "A 55210-2021")</f>
         <v/>
       </c>
     </row>
@@ -3819,7 +3820,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3870,27 +3871,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 66274-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 66274-2021.xlsx", "A 66274-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 66274-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 66274-2021.png", "A 66274-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 66274-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 66274-2021.docx", "A 66274-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 66274-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 66274-2021.docx", "A 66274-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 66274-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 66274-2021.docx", "A 66274-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 66274-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 66274-2021.docx", "A 66274-2021")</f>
         <v/>
       </c>
     </row>
@@ -3904,7 +3905,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3960,27 +3961,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 72045-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 72045-2021.xlsx", "A 72045-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 72045-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 72045-2021.png", "A 72045-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 72045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 72045-2021.docx", "A 72045-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 72045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 72045-2021.docx", "A 72045-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 72045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 72045-2021.docx", "A 72045-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 72045-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 72045-2021.docx", "A 72045-2021")</f>
         <v/>
       </c>
     </row>
@@ -3994,7 +3995,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4050,27 +4051,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 4664-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 4664-2022.xlsx", "A 4664-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 4664-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 4664-2022.png", "A 4664-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 4664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 4664-2022.docx", "A 4664-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 4664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 4664-2022.docx", "A 4664-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 4664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 4664-2022.docx", "A 4664-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 4664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 4664-2022.docx", "A 4664-2022")</f>
         <v/>
       </c>
     </row>
@@ -4084,7 +4085,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4140,27 +4141,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 13548-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 13548-2022.xlsx", "A 13548-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 13548-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 13548-2022.png", "A 13548-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 13548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 13548-2022.docx", "A 13548-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 13548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 13548-2022.docx", "A 13548-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 13548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 13548-2022.docx", "A 13548-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 13548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 13548-2022.docx", "A 13548-2022")</f>
         <v/>
       </c>
     </row>
@@ -4174,7 +4175,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4225,31 +4226,31 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14002-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14002-2022.xlsx", "A 14002-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14002-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14002-2022.png", "A 14002-2022")</f>
         <v/>
       </c>
       <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 14002-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 14002-2022.png", "A 14002-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14002-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14002-2022.docx", "A 14002-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14002-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14002-2022.docx", "A 14002-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14002-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14002-2022.docx", "A 14002-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14002-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14002-2022.docx", "A 14002-2022")</f>
         <v/>
       </c>
     </row>
@@ -4263,7 +4264,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4319,27 +4320,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14594-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14594-2022.xlsx", "A 14594-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14594-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14594-2022.png", "A 14594-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14594-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14594-2022.docx", "A 14594-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14594-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14594-2022.docx", "A 14594-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14594-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14594-2022.docx", "A 14594-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14594-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14594-2022.docx", "A 14594-2022")</f>
         <v/>
       </c>
     </row>
@@ -4353,7 +4354,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4404,27 +4405,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 21934-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 21934-2023.xlsx", "A 21934-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 21934-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 21934-2023.png", "A 21934-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 21934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 21934-2023.docx", "A 21934-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 21934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 21934-2023.docx", "A 21934-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 21934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 21934-2023.docx", "A 21934-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 21934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 21934-2023.docx", "A 21934-2023")</f>
         <v/>
       </c>
     </row>
@@ -4438,7 +4439,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4489,27 +4490,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 21919-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 21919-2023.xlsx", "A 21919-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 21919-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 21919-2023.png", "A 21919-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 21919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 21919-2023.docx", "A 21919-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 21919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 21919-2023.docx", "A 21919-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 21919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 21919-2023.docx", "A 21919-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 21919-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 21919-2023.docx", "A 21919-2023")</f>
         <v/>
       </c>
     </row>
@@ -4523,7 +4524,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4579,27 +4580,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 25144-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 25144-2023.xlsx", "A 25144-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 25144-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 25144-2023.png", "A 25144-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 25144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 25144-2023.docx", "A 25144-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 25144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 25144-2023.docx", "A 25144-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 25144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 25144-2023.docx", "A 25144-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 25144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 25144-2023.docx", "A 25144-2023")</f>
         <v/>
       </c>
     </row>
@@ -4613,7 +4614,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,27 +4665,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41484-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 41484-2023.xlsx", "A 41484-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41484-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 41484-2023.png", "A 41484-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 41484-2023.docx", "A 41484-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 41484-2023.docx", "A 41484-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 41484-2023.docx", "A 41484-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 41484-2023.docx", "A 41484-2023")</f>
         <v/>
       </c>
     </row>
@@ -4698,7 +4699,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4755,7 +4756,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4812,7 +4813,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4869,7 +4870,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4926,7 +4927,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4983,7 +4984,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5040,7 +5041,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5097,7 +5098,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5154,7 +5155,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5211,7 +5212,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5268,7 +5269,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5325,7 +5326,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5382,7 +5383,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5439,7 +5440,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5496,7 +5497,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5553,7 +5554,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5610,7 +5611,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5667,7 +5668,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5724,7 +5725,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5786,7 +5787,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5843,7 +5844,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5900,7 +5901,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5957,7 +5958,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6019,7 +6020,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6081,7 +6082,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6138,7 +6139,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6195,7 +6196,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6252,7 +6253,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6309,7 +6310,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6366,7 +6367,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6423,7 +6424,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6480,7 +6481,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6537,7 +6538,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6594,7 +6595,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6651,7 +6652,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6708,7 +6709,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6770,7 +6771,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6827,7 +6828,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6884,7 +6885,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6941,7 +6942,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6998,7 +6999,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7055,7 +7056,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7112,7 +7113,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7169,7 +7170,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7231,7 +7232,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7288,7 +7289,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7345,7 +7346,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7402,7 +7403,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7459,7 +7460,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7516,7 +7517,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7573,7 +7574,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7630,7 +7631,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7687,7 +7688,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7744,7 +7745,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7801,7 +7802,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7858,7 +7859,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7915,7 +7916,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7972,7 +7973,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8034,7 +8035,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8091,7 +8092,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8153,7 +8154,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8210,7 +8211,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8267,7 +8268,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8329,7 +8330,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8391,7 +8392,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8453,7 +8454,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8510,7 +8511,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8567,7 +8568,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8624,7 +8625,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8681,7 +8682,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8738,7 +8739,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8795,7 +8796,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8852,7 +8853,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8909,7 +8910,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8971,7 +8972,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9028,7 +9029,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9085,7 +9086,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9142,7 +9143,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9199,7 +9200,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9256,7 +9257,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9313,7 +9314,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9370,7 +9371,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9427,7 +9428,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9484,7 +9485,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9541,7 +9542,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9603,7 +9604,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9665,7 +9666,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9722,7 +9723,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9779,7 +9780,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9836,7 +9837,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9893,7 +9894,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9950,7 +9951,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10007,7 +10008,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10064,7 +10065,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10121,7 +10122,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10183,7 +10184,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10240,7 +10241,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10297,7 +10298,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10354,7 +10355,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10411,7 +10412,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10468,7 +10469,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10525,7 +10526,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10582,7 +10583,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10639,7 +10640,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10696,7 +10697,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10753,7 +10754,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10810,7 +10811,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10867,7 +10868,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10924,7 +10925,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10981,7 +10982,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11038,7 +11039,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11100,7 +11101,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11157,7 +11158,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11209,23 +11210,23 @@
       </c>
       <c r="R160" s="2" t="inlineStr"/>
       <c r="U160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 22869-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 22869-2019.png", "A 22869-2019")</f>
         <v/>
       </c>
       <c r="V160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 22869-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 22869-2019.docx", "A 22869-2019")</f>
         <v/>
       </c>
       <c r="W160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 22869-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 22869-2019.docx", "A 22869-2019")</f>
         <v/>
       </c>
       <c r="X160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 22869-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 22869-2019.docx", "A 22869-2019")</f>
         <v/>
       </c>
       <c r="Y160">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 22869-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 22869-2019.docx", "A 22869-2019")</f>
         <v/>
       </c>
     </row>
@@ -11239,7 +11240,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11301,7 +11302,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11363,7 +11364,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11425,7 +11426,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11482,7 +11483,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11539,7 +11540,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11596,7 +11597,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11653,7 +11654,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11710,7 +11711,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11767,7 +11768,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11829,7 +11830,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11886,7 +11887,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11943,7 +11944,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12000,7 +12001,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12057,7 +12058,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12115,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12176,7 +12177,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12233,7 +12234,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12290,7 +12291,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12352,7 +12353,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12414,7 +12415,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12471,7 +12472,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12533,7 +12534,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12590,7 +12591,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12647,7 +12648,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12704,7 +12705,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12761,7 +12762,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12818,7 +12819,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12875,7 +12876,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12932,7 +12933,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12989,7 +12990,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13046,7 +13047,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13108,7 +13109,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13165,7 +13166,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13227,7 +13228,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13289,7 +13290,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13351,7 +13352,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13413,7 +13414,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13470,7 +13471,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13532,7 +13533,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13594,7 +13595,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13651,7 +13652,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13708,7 +13709,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13765,7 +13766,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13822,7 +13823,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13880,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13936,7 +13937,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13993,7 +13994,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14050,7 +14051,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14107,7 +14108,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14169,7 +14170,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14226,7 +14227,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14283,7 +14284,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14340,7 +14341,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14397,7 +14398,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14455,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14512,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14569,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14625,7 +14626,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14682,7 +14683,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14739,7 +14740,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14796,7 +14797,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14853,7 +14854,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14910,7 +14911,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14967,7 +14968,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15024,7 +15025,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15081,7 +15082,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15138,7 +15139,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15195,7 +15196,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15252,7 +15253,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15309,7 +15310,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15366,7 +15367,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15423,7 +15424,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15480,7 +15481,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15537,7 +15538,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15599,7 +15600,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15661,7 +15662,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15718,7 +15719,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15775,7 +15776,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15832,7 +15833,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15889,7 +15890,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15946,7 +15947,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16004,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16061,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16117,7 +16118,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16174,7 +16175,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16231,7 +16232,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16293,7 +16294,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16350,7 +16351,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16407,7 +16408,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16464,7 +16465,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16521,7 +16522,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16578,7 +16579,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16635,7 +16636,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16692,7 +16693,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16749,7 +16750,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16806,7 +16807,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16863,7 +16864,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16920,7 +16921,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16977,7 +16978,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17034,7 +17035,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17091,7 +17092,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17148,7 +17149,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17205,7 +17206,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17262,7 +17263,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17319,7 +17320,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17376,7 +17377,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17433,7 +17434,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17490,7 +17491,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17547,7 +17548,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17604,7 +17605,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17661,7 +17662,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17718,7 +17719,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17775,7 +17776,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17832,7 +17833,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17889,7 +17890,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17946,7 +17947,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18003,7 +18004,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18060,7 +18061,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18117,7 +18118,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18174,7 +18175,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18231,7 +18232,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18288,7 +18289,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18345,7 +18346,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18402,7 +18403,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18459,7 +18460,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18516,7 +18517,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18573,7 +18574,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18630,7 +18631,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18687,7 +18688,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18744,7 +18745,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18801,7 +18802,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18858,7 +18859,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18915,7 +18916,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18972,7 +18973,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19029,7 +19030,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19086,7 +19087,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19143,7 +19144,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19200,7 +19201,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19257,7 +19258,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19314,7 +19315,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19371,7 +19372,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19428,7 +19429,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19485,7 +19486,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19542,7 +19543,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19599,7 +19600,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19656,7 +19657,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19713,7 +19714,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19770,7 +19771,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19827,7 +19828,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19884,7 +19885,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19941,7 +19942,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19998,7 +19999,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20055,7 +20056,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20112,7 +20113,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20169,7 +20170,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20226,7 +20227,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20283,7 +20284,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20340,7 +20341,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20397,7 +20398,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20454,7 +20455,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20511,7 +20512,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20568,7 +20569,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20625,7 +20626,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20682,7 +20683,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20739,7 +20740,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20796,7 +20797,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20853,7 +20854,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20910,7 +20911,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20967,7 +20968,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21024,7 +21025,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21081,7 +21082,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21138,7 +21139,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21195,7 +21196,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21257,7 +21258,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21319,7 +21320,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21381,7 +21382,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21438,7 +21439,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21495,7 +21496,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21552,7 +21553,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21609,7 +21610,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21666,7 +21667,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21728,7 +21729,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21790,7 +21791,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21847,7 +21848,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21904,7 +21905,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21961,7 +21962,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22018,7 +22019,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22075,7 +22076,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22132,7 +22133,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22189,7 +22190,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22251,7 +22252,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22313,7 +22314,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22370,7 +22371,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22432,7 +22433,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22494,7 +22495,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22556,7 +22557,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22613,7 +22614,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22670,7 +22671,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22727,7 +22728,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22789,7 +22790,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22846,7 +22847,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22903,7 +22904,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22960,7 +22961,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23017,7 +23018,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23074,7 +23075,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23131,7 +23132,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23188,7 +23189,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23245,7 +23246,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23302,7 +23303,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23359,7 +23360,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23416,7 +23417,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23473,7 +23474,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23530,7 +23531,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23592,7 +23593,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23654,7 +23655,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23716,7 +23717,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23773,7 +23774,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23830,7 +23831,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23887,7 +23888,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23944,7 +23945,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24001,7 +24002,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24058,7 +24059,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24115,7 +24116,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24172,7 +24173,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24229,7 +24230,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24286,7 +24287,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24343,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24405,7 +24406,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24462,7 +24463,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24519,7 +24520,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24581,7 +24582,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24638,7 +24639,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24695,7 +24696,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24752,7 +24753,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24809,7 +24810,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24871,7 +24872,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24928,7 +24929,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24985,7 +24986,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25047,7 +25048,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25104,7 +25105,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25161,7 +25162,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25218,7 +25219,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25280,7 +25281,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25337,7 +25338,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25394,7 +25395,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25451,7 +25452,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25508,7 +25509,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25565,7 +25566,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25622,7 +25623,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25679,7 +25680,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25736,7 +25737,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25793,7 +25794,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25850,7 +25851,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25907,7 +25908,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25964,7 +25965,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26021,7 +26022,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26078,7 +26079,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26135,7 +26136,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26192,7 +26193,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26249,7 +26250,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26306,7 +26307,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26368,7 +26369,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26425,7 +26426,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26482,7 +26483,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26539,7 +26540,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26601,7 +26602,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26663,7 +26664,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26720,7 +26721,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26777,7 +26778,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26834,7 +26835,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26896,7 +26897,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26958,7 +26959,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27020,7 +27021,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27082,7 +27083,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27139,7 +27140,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27196,7 +27197,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27253,7 +27254,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27310,7 +27311,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27367,7 +27368,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27424,7 +27425,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27481,7 +27482,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27538,7 +27539,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27595,7 +27596,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27652,7 +27653,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27709,7 +27710,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27766,7 +27767,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27823,7 +27824,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27880,7 +27881,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27937,7 +27938,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27994,7 +27995,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28051,7 +28052,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28108,7 +28109,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28165,7 +28166,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28222,7 +28223,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28279,7 +28280,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28336,7 +28337,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28393,7 +28394,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28450,7 +28451,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28507,7 +28508,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28564,7 +28565,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28621,7 +28622,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28678,7 +28679,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28735,7 +28736,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28792,7 +28793,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28854,7 +28855,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28911,7 +28912,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28968,7 +28969,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29025,7 +29026,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29087,7 +29088,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29144,7 +29145,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29201,7 +29202,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29258,7 +29259,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29315,7 +29316,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29372,7 +29373,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29429,7 +29430,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29491,7 +29492,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29553,7 +29554,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29615,7 +29616,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29677,7 +29678,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29739,7 +29740,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29796,7 +29797,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29853,7 +29854,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29910,7 +29911,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29967,7 +29968,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30024,7 +30025,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30081,7 +30082,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30143,7 +30144,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30200,7 +30201,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30257,7 +30258,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30314,7 +30315,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30372,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30433,7 +30434,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30495,7 +30496,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30557,7 +30558,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30614,7 +30615,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30676,7 +30677,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30738,7 +30739,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30795,7 +30796,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30852,7 +30853,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30909,7 +30910,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30967,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31024,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31081,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31138,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31199,7 +31200,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31256,7 +31257,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31318,7 +31319,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31380,7 +31381,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31437,7 +31438,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31494,7 +31495,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31551,7 +31552,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31608,7 +31609,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31665,7 +31666,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31722,7 +31723,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31779,7 +31780,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31836,7 +31837,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31893,7 +31894,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31955,7 +31956,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32017,7 +32018,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32079,7 +32080,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32141,7 +32142,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32203,7 +32204,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32260,7 +32261,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32317,7 +32318,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32374,7 +32375,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32431,7 +32432,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32493,7 +32494,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32550,7 +32551,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32607,7 +32608,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32664,7 +32665,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32721,7 +32722,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32778,7 +32779,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32835,7 +32836,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32897,7 +32898,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32959,7 +32960,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33016,7 +33017,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33073,7 +33074,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33130,7 +33131,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33192,7 +33193,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33249,7 +33250,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33311,7 +33312,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33358,23 +33359,23 @@
       </c>
       <c r="R542" s="2" t="inlineStr"/>
       <c r="U542">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 55764-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 55764-2022.png", "A 55764-2022")</f>
         <v/>
       </c>
       <c r="V542">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 55764-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 55764-2022.docx", "A 55764-2022")</f>
         <v/>
       </c>
       <c r="W542">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 55764-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 55764-2022.docx", "A 55764-2022")</f>
         <v/>
       </c>
       <c r="X542">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 55764-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 55764-2022.docx", "A 55764-2022")</f>
         <v/>
       </c>
       <c r="Y542">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 55764-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 55764-2022.docx", "A 55764-2022")</f>
         <v/>
       </c>
     </row>
@@ -33388,7 +33389,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33445,7 +33446,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33502,7 +33503,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33559,7 +33560,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33616,7 +33617,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33673,7 +33674,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33730,7 +33731,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33792,7 +33793,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33849,7 +33850,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33906,7 +33907,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33963,7 +33964,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34020,7 +34021,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34077,7 +34078,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34134,7 +34135,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34191,7 +34192,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34248,7 +34249,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34305,7 +34306,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34362,7 +34363,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34424,7 +34425,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34481,7 +34482,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34538,7 +34539,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34595,7 +34596,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34652,7 +34653,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34714,7 +34715,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34776,7 +34777,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34833,7 +34834,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34890,7 +34891,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34947,7 +34948,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35004,7 +35005,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35066,7 +35067,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35128,7 +35129,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35190,7 +35191,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35247,7 +35248,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35304,7 +35305,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35361,7 +35362,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35418,7 +35419,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35475,7 +35476,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35537,7 +35538,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35594,7 +35595,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35651,7 +35652,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35708,7 +35709,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35765,7 +35766,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35822,7 +35823,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35879,7 +35880,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35942,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36003,7 +36004,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36065,7 +36066,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36122,7 +36123,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36179,7 +36180,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36236,7 +36237,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36293,7 +36294,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36350,7 +36351,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36407,7 +36408,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36469,7 +36470,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36526,7 +36527,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36583,7 +36584,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36640,7 +36641,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36697,7 +36698,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36754,7 +36755,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36811,7 +36812,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36868,7 +36869,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36925,7 +36926,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36982,7 +36983,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37039,7 +37040,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37096,7 +37097,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37153,7 +37154,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37210,7 +37211,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37267,7 +37268,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37324,7 +37325,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37381,7 +37382,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37438,7 +37439,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37495,7 +37496,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37552,7 +37553,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37609,7 +37610,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37666,7 +37667,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37723,7 +37724,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37780,7 +37781,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37838,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37894,7 +37895,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37951,7 +37952,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38008,7 +38009,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38065,7 +38066,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38122,7 +38123,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38179,7 +38180,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38236,7 +38237,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38293,7 +38294,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38350,7 +38351,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38407,7 +38408,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38464,7 +38465,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38521,7 +38522,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38578,7 +38579,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38635,7 +38636,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38692,7 +38693,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38749,7 +38750,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38806,7 +38807,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38863,7 +38864,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38920,7 +38921,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38977,7 +38978,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39034,7 +39035,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39096,7 +39097,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39153,7 +39154,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39210,7 +39211,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39267,7 +39268,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39324,7 +39325,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39381,7 +39382,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39438,7 +39439,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39495,7 +39496,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39552,7 +39553,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39609,7 +39610,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39666,7 +39667,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39723,7 +39724,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43591</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44378</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34192,7 +34192,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34249,7 +34249,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34425,7 +34425,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34482,7 +34482,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35362,7 +35362,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35419,7 +35419,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35538,7 +35538,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36123,7 +36123,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36584,7 +36584,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36698,7 +36698,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36755,7 +36755,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36812,7 +36812,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43591</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44378</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34192,7 +34192,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34249,7 +34249,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34425,7 +34425,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34482,7 +34482,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35362,7 +35362,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35419,7 +35419,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35538,7 +35538,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36123,7 +36123,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36584,7 +36584,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36698,7 +36698,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36755,7 +36755,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36812,7 +36812,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y653"/>
+  <dimension ref="A1:Y654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43591</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44378</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34192,7 +34192,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34249,7 +34249,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34425,7 +34425,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34482,7 +34482,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35362,7 +35362,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35419,7 +35419,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35538,7 +35538,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36123,7 +36123,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36584,7 +36584,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36698,7 +36698,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36755,7 +36755,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36812,7 +36812,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
       </c>
       <c r="R652" s="2" t="inlineStr"/>
     </row>
-    <row r="653">
+    <row r="653" ht="15" customHeight="1">
       <c r="A653" t="inlineStr">
         <is>
           <t>A 41510-2023</t>
@@ -39724,7 +39724,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39770,6 +39770,63 @@
         <v>0</v>
       </c>
       <c r="R653" s="2" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>A 44364-2023</t>
+        </is>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C654" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G654" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0</v>
+      </c>
+      <c r="K654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N654" t="n">
+        <v>0</v>
+      </c>
+      <c r="O654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R654" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>43861</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44070</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44770</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44994</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43591</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44378</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31723,7 +31723,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31780,7 +31780,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31894,7 +31894,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33017,7 +33017,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33074,7 +33074,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34192,7 +34192,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34249,7 +34249,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34425,7 +34425,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34482,7 +34482,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35248,7 +35248,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35305,7 +35305,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35362,7 +35362,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35419,7 +35419,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35538,7 +35538,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35595,7 +35595,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35709,7 +35709,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36123,7 +36123,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36294,7 +36294,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36584,7 +36584,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36698,7 +36698,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36755,7 +36755,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36812,7 +36812,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37040,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37211,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37268,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37439,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37667,7 +37667,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38522,7 +38522,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39211,7 +39211,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39268,7 +39268,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39325,7 +39325,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39781,7 +39781,7 @@
         <v>45188</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y654"/>
+  <dimension ref="A1:Y657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -731,6 +731,7 @@
 Taggfingersvamp
 Dofttaggsvamp
 Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
 Skarp dropptaggsvamp
 Zontaggsvamp
 Lopplummer</t>
@@ -771,7 +772,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +862,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +960,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1053,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1141,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1228,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,14 +1313,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5520-2020</t>
+          <t>A 23049-2019</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43861</v>
+        <v>43591</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1337,7 +1338,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1370,683 +1371,684 @@
         <v>3</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Brandticka
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 23049-2019.xlsx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 23049-2019.png", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 23049-2019.docx", "A 23049-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 5520-2020</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>43861</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Svedjenäva
 Skogsknipprot
 Springkorn</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 5520-2020.xlsx", "A 5520-2020")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 5520-2020.png", "A 5520-2020")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 5520-2020.docx", "A 5520-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 40945-2020</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44070</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>5.6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Bronshjon</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 40945-2020.xlsx", "A 40945-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 40945-2020.png", "A 40945-2020")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 40945-2020.png", "A 40945-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 40945-2020.docx", "A 40945-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 11927-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44635</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>12</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Barkticka
 Kornig nållav</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11927-2022.xlsx", "A 11927-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11927-2022.png", "A 11927-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11927-2022.docx", "A 11927-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 31151-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44770</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>7.8</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 31151-2022.xlsx", "A 31151-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 31151-2022.png", "A 31151-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 31151-2022.docx", "A 31151-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 53051-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44876</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>1.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Storgröe
 Strutbräken
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 53051-2022.xlsx", "A 53051-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 53051-2022.png", "A 53051-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 53051-2022.docx", "A 53051-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 11615-2023</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44994</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Svedjenäva
 Skogsknipprot
 Springkorn</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 11615-2023.xlsx", "A 11615-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 11615-2023.png", "A 11615-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 11615-2023.docx", "A 11615-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 14815-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45014</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>5.4</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vaddporing
 Rödgul trumpetsvamp
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 14815-2023.xlsx", "A 14815-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 14815-2023.png", "A 14815-2023")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/knärot/A 14815-2023.png", "A 14815-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 14815-2023.docx", "A 14815-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 23049-2019</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>43591</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KARLSTAD</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/artfynd/A 23049-2019.xlsx", "A 23049-2019")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/kartor/A 23049-2019.png", "A 23049-2019")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomål/A 23049-2019.docx", "A 23049-2019")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/klagomålsmail/A 23049-2019.docx", "A 23049-2019")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsyn/A 23049-2019.docx", "A 23049-2019")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSTAD/tillsynsmail/A 23049-2019.docx", "A 23049-2019")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2057,7 +2059,7 @@
         <v>43928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2147,7 +2149,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2238,7 +2240,7 @@
         <v>44378</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2329,7 +2331,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2422,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,7 +2508,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2596,7 +2598,7 @@
         <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,7 +2688,7 @@
         <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,7 +2773,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2856,7 +2858,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2948,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3036,7 +3038,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3121,7 +3123,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3208,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3298,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3381,7 +3383,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3472,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,7 +3557,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3642,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3730,7 +3732,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3822,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3907,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3997,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4085,7 +4087,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4177,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4266,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4354,7 +4356,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4441,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4526,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4614,7 +4616,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4699,7 +4701,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4756,7 +4758,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4813,7 +4815,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4870,7 +4872,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4927,7 +4929,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4984,7 +4986,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5041,7 +5043,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5098,7 +5100,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5155,7 +5157,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5212,7 +5214,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5269,7 +5271,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5326,7 +5328,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5383,7 +5385,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5440,7 +5442,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5497,7 +5499,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5554,7 +5556,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5611,7 +5613,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5668,7 +5670,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5725,7 +5727,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5787,7 +5789,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5844,7 +5846,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5901,7 +5903,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5958,7 +5960,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6020,7 +6022,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6082,7 +6084,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6139,7 +6141,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6196,7 +6198,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6253,7 +6255,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6310,7 +6312,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6367,7 +6369,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6424,7 +6426,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6481,7 +6483,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6538,7 +6540,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6595,7 +6597,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6652,7 +6654,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6709,7 +6711,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6771,7 +6773,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6828,7 +6830,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6885,7 +6887,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6942,7 +6944,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6999,7 +7001,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7056,7 +7058,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7113,7 +7115,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7170,7 +7172,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7232,7 +7234,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7289,7 +7291,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7346,7 +7348,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7403,7 +7405,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7460,7 +7462,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7517,7 +7519,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7574,7 +7576,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7631,7 +7633,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7688,7 +7690,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7745,7 +7747,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7802,7 +7804,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7859,7 +7861,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7916,7 +7918,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7973,7 +7975,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8035,7 +8037,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8092,7 +8094,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8154,7 +8156,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8211,7 +8213,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8268,7 +8270,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8330,7 +8332,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8392,7 +8394,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8454,7 +8456,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8511,7 +8513,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8568,7 +8570,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8625,7 +8627,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8682,7 +8684,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8739,7 +8741,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8796,7 +8798,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8853,7 +8855,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8910,7 +8912,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8972,7 +8974,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9029,7 +9031,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9086,7 +9088,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9143,7 +9145,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9200,7 +9202,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9257,7 +9259,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9314,7 +9316,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9371,7 +9373,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9428,7 +9430,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9485,7 +9487,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9542,7 +9544,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9604,7 +9606,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9666,7 +9668,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9723,7 +9725,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9780,7 +9782,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9837,7 +9839,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9894,7 +9896,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9951,7 +9953,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10008,7 +10010,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10065,7 +10067,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10122,7 +10124,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10184,7 +10186,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10241,7 +10243,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10298,7 +10300,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10355,7 +10357,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10412,7 +10414,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10469,7 +10471,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10526,7 +10528,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10583,7 +10585,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10640,7 +10642,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10697,7 +10699,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10754,7 +10756,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10811,7 +10813,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10868,7 +10870,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10925,7 +10927,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10982,7 +10984,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11039,7 +11041,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11101,7 +11103,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11158,7 +11160,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11240,7 +11242,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11302,7 +11304,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11364,7 +11366,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11426,7 +11428,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11483,7 +11485,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11540,7 +11542,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11597,7 +11599,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11654,7 +11656,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11711,7 +11713,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11768,7 +11770,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11830,7 +11832,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11887,7 +11889,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11944,7 +11946,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12001,7 +12003,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12058,7 +12060,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12115,7 +12117,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12177,7 +12179,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12234,7 +12236,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12291,7 +12293,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12353,7 +12355,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12415,7 +12417,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12472,7 +12474,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12534,7 +12536,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12591,7 +12593,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12648,7 +12650,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12705,7 +12707,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12762,7 +12764,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12819,7 +12821,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12876,7 +12878,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12933,7 +12935,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12990,7 +12992,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13047,7 +13049,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13109,7 +13111,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13166,7 +13168,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13228,7 +13230,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13290,7 +13292,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13352,7 +13354,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13414,7 +13416,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13471,7 +13473,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13533,7 +13535,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13595,7 +13597,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13652,7 +13654,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13709,7 +13711,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13766,7 +13768,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13823,7 +13825,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13880,7 +13882,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13937,7 +13939,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13994,7 +13996,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14051,7 +14053,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14108,7 +14110,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14170,7 +14172,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14227,7 +14229,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14284,7 +14286,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14341,7 +14343,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14398,7 +14400,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14455,7 +14457,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14512,7 +14514,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14569,7 +14571,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14626,7 +14628,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14683,7 +14685,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14740,7 +14742,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14797,7 +14799,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14854,7 +14856,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14911,7 +14913,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14968,7 +14970,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15025,7 +15027,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15082,7 +15084,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15139,7 +15141,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15196,7 +15198,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15253,7 +15255,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15310,7 +15312,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15367,7 +15369,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15424,7 +15426,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15481,7 +15483,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15538,7 +15540,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15600,7 +15602,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15662,7 +15664,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15719,7 +15721,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15778,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15835,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15890,7 +15892,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15947,7 +15949,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16004,7 +16006,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16061,7 +16063,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16118,7 +16120,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16175,7 +16177,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16232,7 +16234,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16294,7 +16296,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16351,7 +16353,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16408,7 +16410,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16465,7 +16467,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16522,7 +16524,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16579,7 +16581,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16636,7 +16638,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16693,7 +16695,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16750,7 +16752,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16807,7 +16809,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16864,7 +16866,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16921,7 +16923,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16978,7 +16980,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17035,7 +17037,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17092,7 +17094,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17149,7 +17151,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17206,7 +17208,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17263,7 +17265,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17320,7 +17322,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17377,7 +17379,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17434,7 +17436,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17491,7 +17493,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17548,7 +17550,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17605,7 +17607,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17662,7 +17664,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17719,7 +17721,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17776,7 +17778,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17833,7 +17835,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17890,7 +17892,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17947,7 +17949,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18004,7 +18006,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18061,7 +18063,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18118,7 +18120,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18175,7 +18177,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18232,7 +18234,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18289,7 +18291,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18346,7 +18348,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18403,7 +18405,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18460,7 +18462,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18517,7 +18519,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18574,7 +18576,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18633,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18688,7 +18690,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18745,7 +18747,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18802,7 +18804,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18859,7 +18861,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18916,7 +18918,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18973,7 +18975,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19030,7 +19032,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19087,7 +19089,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19144,7 +19146,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19201,7 +19203,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19258,7 +19260,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19315,7 +19317,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19372,7 +19374,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19429,7 +19431,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19486,7 +19488,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19543,7 +19545,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19600,7 +19602,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19657,7 +19659,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19714,7 +19716,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19771,7 +19773,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19828,7 +19830,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19885,7 +19887,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19942,7 +19944,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19999,7 +20001,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20056,7 +20058,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20113,7 +20115,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20170,7 +20172,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20227,7 +20229,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20284,7 +20286,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20341,7 +20343,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20398,7 +20400,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20455,7 +20457,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20512,7 +20514,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20569,7 +20571,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20626,7 +20628,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20683,7 +20685,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20740,7 +20742,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20797,7 +20799,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20854,7 +20856,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20911,7 +20913,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20968,7 +20970,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21025,7 +21027,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21082,7 +21084,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21139,7 +21141,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21196,7 +21198,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21258,7 +21260,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21320,7 +21322,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21382,7 +21384,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21439,7 +21441,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21496,7 +21498,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21553,7 +21555,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21610,7 +21612,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21667,7 +21669,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21729,7 +21731,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21791,7 +21793,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21848,7 +21850,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21905,7 +21907,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21962,7 +21964,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22019,7 +22021,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22076,7 +22078,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22133,7 +22135,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22190,7 +22192,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22252,7 +22254,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22314,7 +22316,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22371,7 +22373,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22433,7 +22435,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22495,7 +22497,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22557,7 +22559,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22614,7 +22616,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22671,7 +22673,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22728,7 +22730,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22790,7 +22792,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22847,7 +22849,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22904,7 +22906,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22961,7 +22963,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23018,7 +23020,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23075,7 +23077,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23132,7 +23134,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23189,7 +23191,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23246,7 +23248,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23303,7 +23305,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23360,7 +23362,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23417,7 +23419,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23474,7 +23476,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23531,7 +23533,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23593,7 +23595,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23655,7 +23657,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23717,7 +23719,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23774,7 +23776,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23831,7 +23833,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23888,7 +23890,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23945,7 +23947,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24002,7 +24004,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24059,7 +24061,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24116,7 +24118,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24173,7 +24175,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24230,7 +24232,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24287,7 +24289,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24344,7 +24346,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24406,7 +24408,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24463,7 +24465,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24520,7 +24522,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24582,7 +24584,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24639,7 +24641,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24696,7 +24698,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24753,7 +24755,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24810,7 +24812,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24872,7 +24874,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24929,7 +24931,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24986,7 +24988,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25048,7 +25050,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25105,7 +25107,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25162,7 +25164,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25219,7 +25221,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25281,7 +25283,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25338,7 +25340,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25395,7 +25397,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25452,7 +25454,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25509,7 +25511,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25566,7 +25568,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25623,7 +25625,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25680,7 +25682,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25737,7 +25739,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25794,7 +25796,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25851,7 +25853,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25908,7 +25910,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25965,7 +25967,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26022,7 +26024,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26079,7 +26081,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26136,7 +26138,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26193,7 +26195,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26250,7 +26252,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26307,7 +26309,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26369,7 +26371,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26426,7 +26428,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26483,7 +26485,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26540,7 +26542,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26602,7 +26604,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26664,7 +26666,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26721,7 +26723,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26778,7 +26780,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26835,7 +26837,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26897,7 +26899,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26959,7 +26961,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27021,7 +27023,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27083,7 +27085,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27140,7 +27142,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27197,7 +27199,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27254,7 +27256,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27311,7 +27313,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27368,7 +27370,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27425,7 +27427,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27482,7 +27484,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27539,7 +27541,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27596,7 +27598,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27653,7 +27655,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27710,7 +27712,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27767,7 +27769,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27824,7 +27826,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27881,7 +27883,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27938,7 +27940,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27995,7 +27997,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28052,7 +28054,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28109,7 +28111,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28166,7 +28168,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28223,7 +28225,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28280,7 +28282,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28337,7 +28339,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28394,7 +28396,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28451,7 +28453,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28508,7 +28510,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28565,7 +28567,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28622,7 +28624,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28679,7 +28681,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28736,7 +28738,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28793,7 +28795,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28855,7 +28857,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28912,7 +28914,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28969,7 +28971,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29026,7 +29028,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29088,7 +29090,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29145,7 +29147,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29202,7 +29204,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29259,7 +29261,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29316,7 +29318,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29373,7 +29375,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29430,7 +29432,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29492,7 +29494,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29554,7 +29556,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29616,7 +29618,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29678,7 +29680,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29740,7 +29742,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29797,7 +29799,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29854,7 +29856,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29911,7 +29913,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29968,7 +29970,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30025,7 +30027,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30082,7 +30084,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30144,7 +30146,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30201,7 +30203,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30258,7 +30260,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30315,7 +30317,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30372,7 +30374,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30434,7 +30436,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30496,7 +30498,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30558,7 +30560,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30615,7 +30617,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30677,7 +30679,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30739,7 +30741,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30796,7 +30798,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30853,7 +30855,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30910,7 +30912,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30967,7 +30969,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31024,7 +31026,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31081,7 +31083,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31138,7 +31140,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31200,7 +31202,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31257,7 +31259,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31319,7 +31321,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31381,7 +31383,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31438,7 +31440,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31495,7 +31497,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31552,7 +31554,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31609,7 +31611,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31666,7 +31668,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31723,7 +31725,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31780,7 +31782,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31837,7 +31839,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31894,7 +31896,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31956,7 +31958,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32018,7 +32020,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32080,7 +32082,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32142,7 +32144,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32204,7 +32206,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32261,7 +32263,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32318,7 +32320,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32375,7 +32377,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32432,7 +32434,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32494,7 +32496,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32551,7 +32553,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32608,7 +32610,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32665,7 +32667,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32722,7 +32724,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32779,7 +32781,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32836,7 +32838,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32898,7 +32900,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32960,7 +32962,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33017,7 +33019,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33074,7 +33076,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33131,7 +33133,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33193,7 +33195,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33250,7 +33252,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33312,7 +33314,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33389,7 +33391,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33446,7 +33448,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33503,7 +33505,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33560,7 +33562,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33617,7 +33619,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33674,7 +33676,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33731,7 +33733,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33793,7 +33795,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33850,7 +33852,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33907,7 +33909,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33964,7 +33966,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34021,7 +34023,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34078,7 +34080,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34135,7 +34137,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34192,7 +34194,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34249,7 +34251,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34306,7 +34308,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34363,7 +34365,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34425,7 +34427,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34482,7 +34484,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34539,7 +34541,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34596,7 +34598,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34653,7 +34655,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34715,7 +34717,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34777,7 +34779,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34834,7 +34836,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34891,7 +34893,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34948,7 +34950,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35005,7 +35007,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35067,7 +35069,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35129,7 +35131,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35191,7 +35193,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35248,7 +35250,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35305,7 +35307,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35362,7 +35364,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35419,7 +35421,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35476,7 +35478,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35538,7 +35540,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35595,7 +35597,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35652,7 +35654,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35709,7 +35711,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35766,7 +35768,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35823,7 +35825,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35880,7 +35882,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35942,7 +35944,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36004,7 +36006,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36066,7 +36068,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36123,7 +36125,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36180,7 +36182,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36237,7 +36239,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36294,7 +36296,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36351,7 +36353,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36408,7 +36410,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36470,7 +36472,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36527,7 +36529,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36584,7 +36586,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36641,7 +36643,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36698,7 +36700,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36755,7 +36757,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36812,7 +36814,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36869,7 +36871,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36926,7 +36928,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36983,7 +36985,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37040,7 +37042,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37097,7 +37099,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37154,7 +37156,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37211,7 +37213,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37268,7 +37270,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37325,7 +37327,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37382,7 +37384,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37439,7 +37441,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37496,7 +37498,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37553,7 +37555,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37610,7 +37612,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37667,7 +37669,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37724,7 +37726,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37781,7 +37783,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37838,7 +37840,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37895,7 +37897,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37952,7 +37954,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38009,7 +38011,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38066,7 +38068,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38123,7 +38125,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38180,7 +38182,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38237,7 +38239,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38294,7 +38296,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38351,7 +38353,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38408,7 +38410,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38465,7 +38467,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38522,7 +38524,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38579,7 +38581,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38636,7 +38638,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38693,7 +38695,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38750,7 +38752,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38807,7 +38809,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38864,7 +38866,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38921,7 +38923,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38978,7 +38980,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39035,7 +39037,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39097,7 +39099,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39154,7 +39156,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39211,7 +39213,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39268,7 +39270,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39325,7 +39327,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39382,7 +39384,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39439,7 +39441,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39496,7 +39498,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39553,7 +39555,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39610,7 +39612,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39667,7 +39669,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39724,7 +39726,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39771,7 +39773,7 @@
       </c>
       <c r="R653" s="2" t="inlineStr"/>
     </row>
-    <row r="654">
+    <row r="654" ht="15" customHeight="1">
       <c r="A654" t="inlineStr">
         <is>
           <t>A 44364-2023</t>
@@ -39781,7 +39783,7 @@
         <v>45188</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39827,6 +39829,177 @@
         <v>0</v>
       </c>
       <c r="R654" s="2" t="inlineStr"/>
+    </row>
+    <row r="655" ht="15" customHeight="1">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>A 46097-2023</t>
+        </is>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C655" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G655" t="n">
+        <v>6</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="n">
+        <v>0</v>
+      </c>
+      <c r="K655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N655" t="n">
+        <v>0</v>
+      </c>
+      <c r="O655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R655" s="2" t="inlineStr"/>
+    </row>
+    <row r="656" ht="15" customHeight="1">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>A 46096-2023</t>
+        </is>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C656" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G656" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" t="n">
+        <v>0</v>
+      </c>
+      <c r="K656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N656" t="n">
+        <v>0</v>
+      </c>
+      <c r="O656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R656" s="2" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>A 46098-2023</t>
+        </is>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C657" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G657" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="n">
+        <v>0</v>
+      </c>
+      <c r="K657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N657" t="n">
+        <v>0</v>
+      </c>
+      <c r="O657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R657" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y657"/>
+  <dimension ref="A1:Y658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43591</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43861</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44070</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44635</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44770</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44876</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44994</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45014</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43928</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44264</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44378</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45175</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43563</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43607</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43616</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43866</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43927</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43998</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44174</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>44225</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44544</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44648</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44650</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44655</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>45086</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>43336</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>43346</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43375</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43389</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43395</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43409</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43415</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43426</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43427</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>43434</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43437</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>43440</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>43441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>43445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43452</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43453</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43455</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43469</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43480</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>43488</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>43493</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>43504</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43511</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43514</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43516</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43517</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43529</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43535</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43536</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43537</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43539</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43542</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>43550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>43552</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>43556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43557</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43564</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43570</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43573</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43577</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43579</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43580</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43584</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43588</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43591</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43595</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>43599</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>43600</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>43601</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>43604</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43606</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43608</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43616</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43628</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43636</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43639</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43640</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>43642</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43648</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>43684</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>43696</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43709</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43710</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43714</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>43718</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>43719</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>43721</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43724</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43733</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43748</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43749</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43756</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43759</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43760</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>44132</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44138</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44146</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44151</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>44152</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>44153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44158</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44158</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44159</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44165</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44175</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>44180</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44182</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44187</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44188</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44203</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44208</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44214</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44218</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44225</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44228</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44230</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44238</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44243</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44243</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44245</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44252</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44256</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44258</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44264</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44284</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44292</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44298</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>44322</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>44322</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>44324</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>44327</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44327</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>44333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>44333</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44354</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>44356</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24408,7 +24408,7 @@
         <v>44358</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44363</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>44370</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44376</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44378</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44379</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44379</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44379</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44385</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44396</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>44399</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>44403</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>44403</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>44404</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>44405</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>44413</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>44425</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44426</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>44426</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>44426</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>44427</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>44431</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>44433</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>44446</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44446</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44446</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>44452</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>44452</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44452</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>44452</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44459</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44459</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26309,7 +26309,7 @@
         <v>44467</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44468</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44474</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44475</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44475</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>44482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         <v>44483</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26837,7 +26837,7 @@
         <v>44483</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44483</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44483</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>44484</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44488</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44488</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44491</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>44491</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27313,7 +27313,7 @@
         <v>44493</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44493</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>44495</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44503</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44516</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44518</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>44519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>44530</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>44530</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44533</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44533</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44533</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44536</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44544</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44544</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         <v>44547</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44550</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44552</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44561</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>44566</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44571</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44581</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44585</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44589</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>44593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>44593</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>44594</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44594</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>44595</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>44599</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44600</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44613</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>44623</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44627</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44627</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44634</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44649</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>44649</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44649</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30560,7 +30560,7 @@
         <v>44650</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>44650</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>44652</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44656</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>44662</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>44664</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>44664</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>44669</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>44671</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>44678</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44679</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44687</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44698</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44698</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44708</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44708</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44711</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44712</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44715</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44738</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44746</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44749</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44754</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>44754</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>44763</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>44788</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>44804</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32320,7 +32320,7 @@
         <v>44805</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>44806</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>44812</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>44825</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>44852</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>44855</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>44858</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44861</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44867</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44872</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>44872</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>44873</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>44876</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44876</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>44882</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44887</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44888</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44888</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>44888</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>44894</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>44895</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>44896</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>44896</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>44896</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44896</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>44902</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44904</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44904</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44908</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>44913</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44923</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>44949</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>44959</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44959</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44970</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44973</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44973</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44973</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44974</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44979</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44981</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>44982</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>44985</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>44985</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>44986</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44994</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44994</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>44998</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44998</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44999</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>45005</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>45007</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45015</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>45019</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>45020</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>45020</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>45028</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45034</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45035</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35882,7 +35882,7 @@
         <v>45035</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45035</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>45035</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36068,7 +36068,7 @@
         <v>45036</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
         <v>45037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>45040</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36239,7 +36239,7 @@
         <v>45041</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36296,7 +36296,7 @@
         <v>45041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45041</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45044</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36472,7 +36472,7 @@
         <v>45048</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45048</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>45049</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>45051</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>45061</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>45062</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>45063</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36871,7 +36871,7 @@
         <v>45068</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36928,7 +36928,7 @@
         <v>45070</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>45071</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45071</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>45071</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>45071</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>45077</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37270,7 +37270,7 @@
         <v>45079</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37327,7 +37327,7 @@
         <v>45086</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37384,7 +37384,7 @@
         <v>45091</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>45093</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45093</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45095</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>45095</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>45096</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37783,7 +37783,7 @@
         <v>45097</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>45098</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>45098</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>45098</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>45099</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>45103</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>45106</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>45107</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>45110</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>45112</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>45112</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>45112</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>45118</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>45118</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>45118</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>45120</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>45120</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>45125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>45141</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>45145</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>45149</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>45154</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>45160</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39156,7 +39156,7 @@
         <v>45160</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         <v>45161</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39270,7 +39270,7 @@
         <v>45161</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39327,7 +39327,7 @@
         <v>45166</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39384,7 +39384,7 @@
         <v>45167</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         <v>45168</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39498,7 +39498,7 @@
         <v>45168</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>45168</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39612,7 +39612,7 @@
         <v>45174</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39669,7 +39669,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>45175</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>45188</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>45196</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>45196</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39944,7 +39944,7 @@
       </c>
       <c r="R656" s="2" t="inlineStr"/>
     </row>
-    <row r="657">
+    <row r="657" ht="15" customHeight="1">
       <c r="A657" t="inlineStr">
         <is>
           <t>A 46098-2023</t>
@@ -39954,7 +39954,7 @@
         <v>45196</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40000,6 +40000,63 @@
         <v>0</v>
       </c>
       <c r="R657" s="2" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>A 46967-2023</t>
+        </is>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C658" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>KARLSTAD</t>
+        </is>
+      </c>
+      <c r="G658" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+      <c r="J658" t="n">
+        <v>0</v>
+      </c>
+      <c r="K658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N658" t="n">
+        <v>0</v>
+      </c>
+      <c r="O658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R658" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSTAD.xlsx
+++ b/Översikt KARLSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44070</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>44081</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43553</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44971</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>43591</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43591</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43762</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>43861</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44070</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44635</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>44994</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45014</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43928</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44264</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44701</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>45175</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43504</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43563</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43607</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43616</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43866</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43927</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43998</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44174</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44182</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44225</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44475</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44648</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>44650</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44655</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45068</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>45068</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>45086</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>45175</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43336</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43346</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43360</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43368</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43382</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43389</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43395</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43409</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43415</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43426</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43434</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43437</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43440</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43440</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43441</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>43445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43446</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43448</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>43452</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43455</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43455</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43469</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43474</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43480</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43483</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43493</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43504</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43511</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>43514</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>43514</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>43515</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43515</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>43516</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>43517</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43529</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>43529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>43535</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43536</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43537</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43538</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43538</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43539</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43542</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>43542</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43542</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43546</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43550</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43552</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>43556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>43556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>43557</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43557</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>43558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>43558</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>43558</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>43559</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>43564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>43564</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>43564</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>43570</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43570</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43572</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43572</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43573</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>43577</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>43579</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43580</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43584</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43587</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>43588</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>43591</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>43591</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>43591</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>43595</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>43598</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>43599</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>43600</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>43600</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>43601</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>43604</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43607</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43607</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43608</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43628</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43636</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43639</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>43640</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43642</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>43644</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43648</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43651</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43684</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43684</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43696</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43696</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43709</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43710</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>43714</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>43714</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>43718</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43719</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43721</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43724</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43733</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43748</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43749</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43754</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43755</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43756</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43759</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43759</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43759</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43760</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43779</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43790</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43793</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43809</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>43812</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>43815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>43818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>43818</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>43818</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>43818</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>43819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43821</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>43826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43832</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43832</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43846</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>43851</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>43866</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>43873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>43873</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>43873</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>43873</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>43873</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43873</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43874</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43877</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43881</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>43889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43899</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>43902</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>43905</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>43905</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>43906</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>43909</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43910</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>43910</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>43910</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>43914</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>43914</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>43915</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>43916</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43917</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43920</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43925</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>43927</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>43928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>43950</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>43950</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>43962</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>43962</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>43963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>43970</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>43978</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>43984</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>43987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44004</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44011</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44012</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44012</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44021</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44021</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44021</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44021</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44021</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44047</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44047</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44048</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44048</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44062</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44067</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44067</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44067</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44067</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44078</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44078</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44078</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44081</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44082</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44082</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44084</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44084</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44084</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44085</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44085</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44090</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44098</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44098</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44098</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44102</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44110</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44111</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44113</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44113</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44130</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44130</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44131</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44132</v>
       </c>
     